--- a/Resultados/Mercado mundial - Granos de cacao.xlsx
+++ b/Resultados/Mercado mundial - Granos de cacao.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Côte d'Ivoire" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Ghana" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Ecuador" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Côte d'Ivoire" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ghana" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ecuador" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,10 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -408,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -434,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -490,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -516,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -572,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -598,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -654,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -680,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -723,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -736,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -762,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Côte d''Ivoire'!$B$12:$B$73</f>
+              <f>'Côte d''Ivoire'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Côte d''Ivoire'!$C$12:$C$73</f>
+              <f>'Côte d''Ivoire'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -818,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -844,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ghana'!$B$12:$B$73</f>
+              <f>'Ghana'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ghana'!$C$12:$C$73</f>
+              <f>'Ghana'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -900,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -926,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -982,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1008,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ecuador'!$B$12:$B$73</f>
+              <f>'Ecuador'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ecuador'!$C$12:$C$73</f>
+              <f>'Ecuador'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1064,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1090,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1164,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1204,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1216,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1234,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1274,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1286,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1304,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1344,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1356,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1374,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1414,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1426,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1441,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1478,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1493,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1530,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1545,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1567,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1582,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1597,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1619,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1649,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1671,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2012,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2061,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2140,10 +2138,10 @@
         <v>11654929</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5600100.42</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.4805</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3920895.28</v>
@@ -2162,10 +2160,10 @@
         <v>11656975</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.4806</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5602558.97</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.4806</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3752942.53</v>
@@ -2184,10 +2182,10 @@
         <v>11981268</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.4807</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5759894.6</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.4807</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4066574.41</v>
@@ -2206,10 +2204,10 @@
         <v>11722785</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.4783</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5606584.09</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.4783</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3898306.28</v>
@@ -2228,10 +2226,10 @@
         <v>11351146</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.4863</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5520075.04</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.4863</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4034188.76</v>
@@ -2250,10 +2248,10 @@
         <v>11410703</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.4825</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5505866.86</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.4825</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4090173.06</v>
@@ -2272,10 +2270,10 @@
         <v>11499069</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.4553</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5235269.43</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.4553</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3938012.78</v>
@@ -2294,10 +2292,10 @@
         <v>10699320</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4777618.84</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.4465</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3349115.97</v>
@@ -2316,10 +2314,10 @@
         <v>10957003</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.4396</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4817236.1</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.4396</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2746085.34</v>
@@ -2338,10 +2336,10 @@
         <v>10577940</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.4483</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4742114.16</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.4483</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3130120.01</v>
@@ -2360,10 +2358,10 @@
         <v>10177105</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.4408</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4486395.35</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.4408</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2943227</v>
@@ -2382,10 +2380,10 @@
         <v>10313477</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.4474</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4613754.52</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.4474</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3130556</v>
@@ -2404,10 +2402,10 @@
         <v>10252360</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.4442</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4553617.54</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.4442</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3354331</v>
@@ -2426,10 +2424,10 @@
         <v>9592214</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4328769.53</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.4513</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2962919</v>
@@ -2448,10 +2446,10 @@
         <v>9437648</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.4462</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4211454.86</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.4462</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3103015</v>
@@ -2470,10 +2468,10 @@
         <v>9561187</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.4462</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4265983.94</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.4462</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3084291</v>
@@ -2492,10 +2490,10 @@
         <v>8644002</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3898909.87</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.4511</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3191461</v>
@@ -2514,10 +2512,10 @@
         <v>8514758</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4299922.41</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.505</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3161617</v>
@@ -2536,10 +2534,10 @@
         <v>8706714</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4043867.67</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.4645</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>3116625</v>
@@ -2558,10 +2556,10 @@
         <v>8514053</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4069753.28</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.478</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2794726</v>
@@ -2580,10 +2578,10 @@
         <v>7693381</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.4816</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3705144.75</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.4816</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2693749</v>
@@ -2602,10 +2600,10 @@
         <v>7013880</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.4702</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>3298178.12</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.4702</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2255916</v>
@@ -2624,10 +2622,10 @@
         <v>7149274</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.4507</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3222354.04</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.4507</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2464735</v>
@@ -2646,10 +2644,10 @@
         <v>7613598</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.4385</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3338446.71</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.4385</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2455367.67</v>
@@ -2668,10 +2666,10 @@
         <v>6862088</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.4336</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2975444.16</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.4336</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2355639.15</v>
@@ -2690,10 +2688,10 @@
         <v>6672750</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3302840.27</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.495</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2122196</v>
@@ -2712,10 +2710,10 @@
         <v>6435946</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.4688</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3017083.12</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.4688</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1972527.11</v>
@@ -2734,10 +2732,10 @@
         <v>6652960</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.4867</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3237670.67</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.4867</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2143960</v>
@@ -2756,10 +2754,10 @@
         <v>6556125</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.4554</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2985764.79</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.4554</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1919079.01</v>
@@ -2778,10 +2776,10 @@
         <v>5762503</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.4636</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2671268.65</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.4636</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1881048</v>
@@ -2800,10 +2798,10 @@
         <v>5675475</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.4708</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2672283.72</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.4708</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1851300</v>
@@ -2822,10 +2820,10 @@
         <v>5726224</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.4675</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2677030.92</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.4675</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1871080</v>
@@ -2844,10 +2842,10 @@
         <v>5654463</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2521946.08</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.446</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1883379</v>
@@ -2866,10 +2864,10 @@
         <v>5721260</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.4426</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2532122</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.4426</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1766145</v>
@@ -2888,10 +2886,10 @@
         <v>5514886</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.4789</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2640977</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.4789</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1659964</v>
@@ -2910,10 +2908,10 @@
         <v>5655093</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.4533</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2563305</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.4533</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1544070</v>
@@ -2932,10 +2930,10 @@
         <v>5274994</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.3897</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2055901</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.3897</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1476441</v>
@@ -2954,10 +2952,10 @@
         <v>5247548</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.4037</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2118377</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.4037</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1412765</v>
@@ -2976,10 +2974,10 @@
         <v>5045942</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.3991</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2013982</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.3991</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1480425</v>
@@ -2998,10 +2996,10 @@
         <v>4768084</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.3797</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1810579</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.3797</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1338875</v>
@@ -3020,10 +3018,10 @@
         <v>4658864</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1604641</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.3444</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1261495</v>
@@ -3042,10 +3040,10 @@
         <v>4678307</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.3453</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1615319</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.3453</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1270476</v>
@@ -3064,10 +3062,10 @@
         <v>4848246</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1735254</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.3579</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1242199</v>
@@ -3086,10 +3084,10 @@
         <v>4740285</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1670637</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.3524</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1070043</v>
@@ -3108,10 +3106,10 @@
         <v>4632686</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1659869</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.3583</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1030742</v>
@@ -3130,10 +3128,10 @@
         <v>4581485</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.3264</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1495374</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.3264</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1104404</v>
@@ -3152,10 +3150,10 @@
         <v>4436702</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.3274</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1452505</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.3274</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1007221</v>
@@ -3174,10 +3172,10 @@
         <v>4309551</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.3171</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1366511</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.3171</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1161086</v>
@@ -3196,10 +3194,10 @@
         <v>4360617</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1561625</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.3581</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1193779</v>
@@ -3218,10 +3216,10 @@
         <v>4398742</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1556439</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.3538</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1158423</v>
@@ -3240,10 +3238,10 @@
         <v>4316614</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1402063</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.3248</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1206515</v>
@@ -3262,10 +3260,10 @@
         <v>4299294</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.3514</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1510723</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.3514</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1261836</v>
@@ -3284,10 +3282,10 @@
         <v>4423250</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1638853</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.3705</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1238715</v>
@@ -3306,10 +3304,10 @@
         <v>4358444</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1543399</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.3541</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1118739</v>
@@ -3328,10 +3326,10 @@
         <v>4260037</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1418863</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.3331</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1044597</v>
@@ -3350,10 +3348,10 @@
         <v>4079239</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1246581</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.3056</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1107429</v>
@@ -3372,10 +3370,10 @@
         <v>4220776</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1390511</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.3294</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1103872</v>
@@ -3393,10 +3391,10 @@
         <v>4076650</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1344376</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.3298</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1244743</v>
@@ -3414,10 +3412,10 @@
         <v>4591284</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.2677</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1229159</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.2677</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1237732</v>
@@ -3435,10 +3433,10 @@
         <v>4544137</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1544590</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.3399</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1047522</v>
@@ -3456,10 +3454,10 @@
         <v>4515935</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.2835</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1280491</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.2835</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1058061</v>
@@ -3477,10 +3475,10 @@
         <v>4468672</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.2716</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1213517</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.2716</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1072336</v>
@@ -3498,10 +3496,10 @@
         <v>4403381</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.2694</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1186344</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.2694</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>1023170</v>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3940,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3954,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Camerún</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3982,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3996,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>República Dominicana</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4024,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>29047.4</v>
+        <v>382831.7400000002</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.005186942701288204</v>
+        <v>0.06836158484458038</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>353784.3399999999</v>
+        <v>5600100.42</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.06317464214329212</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>5600100.42</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4071,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4127,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4282,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Camerún</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4296,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4310,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4324,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4352,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4366,44 +4355,36 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>19</v>
+        <v>357859.0900000003</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>4.991121726999359e-06</v>
+        <v>0.0940062252264853</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>357840.0900000003</v>
+        <v>3806759.49</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.0940012341047583</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>3806759.49</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4415,126 +4396,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="35" t="n"/>
+      <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="37" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="37" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="37" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="37" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="37" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="37" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="37" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="37" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="38" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="38" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="38" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="38" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="38" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="38" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="38" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="38" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="38" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4556,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4652,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4666,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4680,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4694,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4722,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4736,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4750,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4778,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4792,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>16776.07</v>
+        <v>687303.3999999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.004278632506604461</v>
+        <v>0.175292465347353</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>670527.3300000001</v>
+        <v>3920895.28</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1710138328407486</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>3920895.28</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4838,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="39" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="39" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="39" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="39" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="39" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="39" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="39" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="39" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="39" t="n"/>
-      <c r="D35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="39" t="n"/>
-      <c r="D36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4960,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5039,10 +5011,10 @@
         <v>4791089</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.4962</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2377442.05</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.4962</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.38</v>
@@ -5061,10 +5033,10 @@
         <v>4716003</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.5002</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2358991</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.5002</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.02</v>
@@ -5083,10 +5055,10 @@
         <v>4416359</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.5046</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2228459</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.5046</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.17</v>
@@ -5105,10 +5077,10 @@
         <v>4309160</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.5105</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2200000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.5105</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.13</v>
@@ -5127,10 +5099,10 @@
         <v>4308544</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.5187</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2235043</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.5187</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.31</v>
@@ -5149,10 +5121,10 @@
         <v>4072832</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.5189</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2113189</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.5189</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.12</v>
@@ -5171,10 +5143,10 @@
         <v>3982695</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.5107</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2034000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.5107</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.5</v>
@@ -5193,10 +5165,10 @@
         <v>3168749</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.5157</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1634000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.5157</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.29</v>
@@ -5215,10 +5187,10 @@
         <v>3458163</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.5194</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1796000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.5194</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.25</v>
@@ -5237,10 +5209,10 @@
         <v>3084498</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1637777.56</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.531</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.8</v>
@@ -5259,10 +5231,10 @@
         <v>2731411</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.5305</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1448992</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.5305</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -5281,10 +5253,10 @@
         <v>2746080</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.5411</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1485882</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.5411</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5303,10 +5275,10 @@
         <v>2685121</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.5628</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1511255</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.5628</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5325,10 +5297,10 @@
         <v>2278786</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.5711000000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1301347</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.5711000000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5347,10 +5319,10 @@
         <v>2176162</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1223153</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.5621</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5369,10 +5341,10 @@
         <v>2300000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.6011</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1382441</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.6011</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5391,10 +5363,10 @@
         <v>2372542</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.5184</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1229908</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.5184</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5413,10 +5385,10 @@
         <v>2281290</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.6176</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1408854</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.6176</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5435,10 +5407,10 @@
         <v>2193548</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.5864</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1286330</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.5864</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5457,10 +5429,10 @@
         <v>2050000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.6864</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1407213</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.6864</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>12484</v>
@@ -5479,10 +5451,10 @@
         <v>2000000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.6758</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1351546</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.6758</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5501,10 +5473,10 @@
         <v>1880000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.6727000000000001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1264708</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.6727000000000001</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5523,10 +5495,10 @@
         <v>1777550</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.6821</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1212428</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.6821</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5545,10 +5517,10 @@
         <v>2000000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.7006</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1401101</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.7006</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>33.34</v>
@@ -5567,10 +5539,10 @@
         <v>1900000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.6121</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1163025</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.6121</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5589,10 +5561,10 @@
         <v>1800000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.6673</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1201119</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.6673</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5611,10 +5583,10 @@
         <v>1823035</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1119110</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.6139</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5633,10 +5605,10 @@
         <v>2052878</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1235300</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.6017</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5655,10 +5627,10 @@
         <v>1900000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1120000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.5895</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5677,10 +5649,10 @@
         <v>1500000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.5391</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>808662</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.5391</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5699,10 +5671,10 @@
         <v>1425953</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.5637000000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>803799</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.5637000000000001</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5721,10 +5693,10 @@
         <v>1450000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.5607000000000001</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>813009</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.5607000000000001</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5743,10 +5715,10 @@
         <v>1412000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.5416</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>764708</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.5416</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5765,10 +5737,10 @@
         <v>1566500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.5155</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>807501</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.5155</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5787,10 +5759,10 @@
         <v>1373300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.5684</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>780521</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.5684</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5809,10 +5781,10 @@
         <v>1566500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.5312</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>832177</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.5312</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5831,10 +5803,10 @@
         <v>1233700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.5382</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>664031</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.5382</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5853,10 +5825,10 @@
         <v>1173700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.5203</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>610680</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.5203</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5875,10 +5847,10 @@
         <v>1099800</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.5047</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>555115</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.5047</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5897,10 +5869,10 @@
         <v>1028700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.5492999999999999</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>565042</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.5492999999999999</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5919,10 +5891,10 @@
         <v>952600</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.4315</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>411081</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.4315</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5941,10 +5913,10 @@
         <v>953000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>360445</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.3782</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5963,10 +5935,10 @@
         <v>901300</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.5156000000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>464751</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.5156000000000001</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5985,10 +5957,10 @@
         <v>836700</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>417222</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.4987</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -6007,10 +5979,10 @@
         <v>784700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5069</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>397759</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5069</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6029,10 +6001,10 @@
         <v>740000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.4302</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>318381</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.4302</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6051,10 +6023,10 @@
         <v>698000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>303621</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.435</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6073,10 +6045,10 @@
         <v>526000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.4417</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>232330</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.4417</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6095,10 +6067,10 @@
         <v>498000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.4641</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>231136</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.4641</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6117,10 +6089,10 @@
         <v>471000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.5127999999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>241511</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.5127999999999999</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6139,10 +6111,10 @@
         <v>497000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.4196</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>208522</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.4196</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6161,10 +6133,10 @@
         <v>440500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>185445</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.421</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6183,10 +6155,10 @@
         <v>422800</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.5341</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>225814</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.5341</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6205,10 +6177,10 @@
         <v>404300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.4431</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>179156</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.4431</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6227,10 +6199,10 @@
         <v>386800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.4672</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>180706</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.4672</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6249,10 +6221,10 @@
         <v>371100</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.3893</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>144476</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.3893</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6271,10 +6243,10 @@
         <v>358000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>146640</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.4096</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6292,10 +6264,10 @@
         <v>342800</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.4366</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>149662</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.4366</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6313,10 +6285,10 @@
         <v>327000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>121772</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.3724</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>6780</v>
@@ -6334,10 +6306,10 @@
         <v>308000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.4515</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>139069</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.4515</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6355,10 +6327,10 @@
         <v>292000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.3938</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>115000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.3938</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6376,10 +6348,10 @@
         <v>277000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.3971</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.3971</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6397,10 +6369,10 @@
         <v>260000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.3269</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.3269</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>7532</v>
@@ -6736,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6815,10 +6787,10 @@
         <v>1150455</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.5682</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>653700</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.5682</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>6136.89</v>
@@ -6837,10 +6809,10 @@
         <v>1219305</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.5604</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>683300</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.5604</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.01</v>
@@ -6859,10 +6831,10 @@
         <v>1895400</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.5526</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1047385</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.5526</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1.5</v>
@@ -6881,10 +6853,10 @@
         <v>1476750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.5417000000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.5417000000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5080.34</v>
@@ -6903,10 +6875,10 @@
         <v>1536624</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.5282</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>811700</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.5282</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.3</v>
@@ -6925,10 +6897,10 @@
         <v>1726616</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>904700</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.524</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1.07</v>
@@ -6947,10 +6919,10 @@
         <v>1863830</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.5201</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>969300</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.5201</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.18</v>
@@ -6969,10 +6941,10 @@
         <v>1683765</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>858720</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.51</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.02</v>
@@ -6991,10 +6963,10 @@
         <v>1683765</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>858720</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.51</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>14492.22</v>
@@ -7013,10 +6985,10 @@
         <v>1683765</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>858720</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.51</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2.45</v>
@@ -7035,10 +7007,10 @@
         <v>1600300</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.5221</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>835466</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.5221</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>10</v>
@@ -7057,10 +7029,10 @@
         <v>1600300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.5495</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>879348</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.5495</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7079,10 +7051,10 @@
         <v>1600300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.4374</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>700020</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.4374</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7101,10 +7073,10 @@
         <v>1600200</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>632037.4</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.395</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7123,10 +7095,10 @@
         <v>1600000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.4441000000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>710638</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.4441000000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7145,10 +7117,10 @@
         <v>1822500</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.3735</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>680781</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.3735</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7167,10 +7139,10 @@
         <v>1463000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>614500</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.42</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7189,10 +7161,10 @@
         <v>1835000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>734000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.4</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>65</v>
@@ -7211,10 +7183,10 @@
         <v>1850000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>740000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.4</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -7233,10 +7205,10 @@
         <v>2000000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.3685</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>737000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.3685</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>840</v>
@@ -7255,10 +7227,10 @@
         <v>1500000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.3313</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>497000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.3313</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7277,10 +7249,10 @@
         <v>1195000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>340562</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.285</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1</v>
@@ -7299,10 +7271,10 @@
         <v>1350000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.2886</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>389591</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.2886</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -7321,10 +7293,10 @@
         <v>1500000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.2911</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>436600</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.2911</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -7343,10 +7315,10 @@
         <v>1300000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>434200</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.334</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>10</v>
@@ -7365,10 +7337,10 @@
         <v>1364530</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>409360</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.3</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>51</v>
@@ -7387,10 +7359,10 @@
         <v>1074970</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>322490</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.3</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -7409,10 +7381,10 @@
         <v>1050000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.3838</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>403000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.3838</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13</v>
@@ -7431,10 +7403,10 @@
         <v>1000000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.4039</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>403900</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.4039</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -7453,10 +7425,10 @@
         <v>686531</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.4196</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>288075</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.4196</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -7475,10 +7447,10 @@
         <v>702061</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.3627</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>254652</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.3627</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -7497,10 +7469,10 @@
         <v>720898</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>312122</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.433</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -7519,10 +7491,10 @@
         <v>720898</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.3354</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>241796</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.3354</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7541,10 +7513,10 @@
         <v>693249</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>293355</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.4232</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7563,10 +7535,10 @@
         <v>700286</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.4213</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>295052</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.4213</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7585,10 +7557,10 @@
         <v>720071</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>246700</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.3426</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7607,10 +7579,10 @@
         <v>739371</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>188170</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.2545</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7629,10 +7601,10 @@
         <v>912000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.2482</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>226400</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.2482</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7651,10 +7623,10 @@
         <v>900000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>194400</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.216</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7673,10 +7645,10 @@
         <v>800000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.2084</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>166700</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.2084</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7695,10 +7667,10 @@
         <v>800000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.2101</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>168100</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.2101</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7717,10 +7689,10 @@
         <v>900000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>202500</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.225</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7739,10 +7711,10 @@
         <v>1200000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.2054</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>246500</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.2054</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7761,10 +7733,10 @@
         <v>1200000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>277200</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.231</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7783,10 +7755,10 @@
         <v>1200000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>280800</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.234</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7805,10 +7777,10 @@
         <v>1200000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.2235</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>268200</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.2235</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7827,10 +7799,10 @@
         <v>1200000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.2312</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>277400</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.2312</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7849,10 +7821,10 @@
         <v>1300000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>326700</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.2513</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7871,10 +7843,10 @@
         <v>1400000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.2838</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>397300</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.2838</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7893,10 +7865,10 @@
         <v>1400000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.2751</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>385100</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.2751</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7915,10 +7887,10 @@
         <v>1400000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>343000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.245</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7937,10 +7909,10 @@
         <v>1450000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.2867</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>415700</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.2867</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7959,10 +7931,10 @@
         <v>1500000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.3133</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>470000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.3133</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7981,10 +7953,10 @@
         <v>1451000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.2798</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>406000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.2798</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -8003,10 +7975,10 @@
         <v>1450000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>414300</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.2857</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -8025,10 +7997,10 @@
         <v>1300000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>327000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.2515</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>27705</v>
@@ -8047,10 +8019,10 @@
         <v>1450000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.2921</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>423500</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.2921</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8068,10 +8040,10 @@
         <v>1350000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>381100</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.2823</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>60017</v>
@@ -8089,10 +8061,10 @@
         <v>1830000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.2272</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>415800</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.2272</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8110,10 +8082,10 @@
         <v>1848000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.3141</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>580500</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.3141</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8131,10 +8103,10 @@
         <v>1820000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.2351</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>427800</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.2351</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>21260</v>
@@ -8152,10 +8124,10 @@
         <v>1800000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.2378</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>428100</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.2378</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>33380</v>
@@ -8173,10 +8145,10 @@
         <v>1756000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.2364</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>415200</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.2364</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>6650</v>
@@ -8512,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8591,10 +8563,10 @@
         <v>1410871</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.4549</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>641741.02</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.4549</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>276682.66</v>
@@ -8613,10 +8585,10 @@
         <v>1421014</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.4579</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>650611.6899999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.4579</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>239152.38</v>
@@ -8635,10 +8607,10 @@
         <v>1421014</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.4579</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>650611.6899999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.4579</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>252121.41</v>
@@ -8657,10 +8629,10 @@
         <v>1508955</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.4776</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>720660</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.4776</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>198838.24</v>
@@ -8679,10 +8651,10 @@
         <v>1560945</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.4707</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>734795</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.4707</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>243462.3</v>
@@ -8701,10 +8673,10 @@
         <v>1611014</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.4763</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>767280</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.4763</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>239377.42</v>
@@ -8723,10 +8695,10 @@
         <v>1658421</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>590684</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.3562</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>246083.97</v>
@@ -8745,10 +8717,10 @@
         <v>1701351</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.3861</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>656817</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.3861</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>61015.95</v>
@@ -8767,10 +8739,10 @@
         <v>1709284</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.3471</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>593331</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.3471</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>53371.88</v>
@@ -8789,10 +8761,10 @@
         <v>1727400</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.4217</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>728400</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.4217</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>109409.56</v>
@@ -8811,10 +8783,10 @@
         <v>1740600</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>720900</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.4142</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>30766</v>
@@ -8833,10 +8805,10 @@
         <v>1852900</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.3996</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>740500</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.3996</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>23943</v>
@@ -8855,10 +8827,10 @@
         <v>1732600</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.4111</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>712200</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.4111</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>19100</v>
@@ -8877,10 +8849,10 @@
         <v>1651539</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.5114</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>844626</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.5114</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>24831</v>
@@ -8899,10 +8871,10 @@
         <v>1587136</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.5101</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>809583</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.5101</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>27230</v>
@@ -8921,10 +8893,10 @@
         <v>1425216</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>803593</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.5638</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>22968</v>
@@ -8943,10 +8915,10 @@
         <v>923968</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>740006</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.8008999999999999</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>19655</v>
@@ -8965,10 +8937,10 @@
         <v>905730</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.8495</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>769386</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.8495</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>26819</v>
@@ -8987,10 +8959,10 @@
         <v>1167046</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.6416000000000001</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>748827</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.6416000000000001</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>30292</v>
@@ -9009,10 +8981,10 @@
         <v>1090960</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>691704</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.634</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>31083</v>
@@ -9031,10 +9003,10 @@
         <v>961107</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.7235</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>695361</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.7235</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>23896</v>
@@ -9053,10 +9025,10 @@
         <v>776901</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>619192</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.797</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>23962</v>
@@ -9075,10 +9047,10 @@
         <v>765405</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7012999999999999</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>536804</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7012999999999999</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>25617</v>
@@ -9097,10 +9069,10 @@
         <v>749917</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>421142</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.5616</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>12625.02</v>
@@ -9119,10 +9091,10 @@
         <v>667897</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.5502</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>367475</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.5502</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8628</v>
@@ -9141,10 +9113,10 @@
         <v>403166</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.1323</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>456499</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.1323</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>5204</v>
@@ -9163,10 +9135,10 @@
         <v>386605</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.8528</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>329700</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.8528</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>797</v>
@@ -9185,10 +9157,10 @@
         <v>398655</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>350800</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.88</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9207,10 +9179,10 @@
         <v>374261</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.7439</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>278400</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.7439</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>50</v>
@@ -9229,10 +9201,10 @@
         <v>359086</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.6731</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>241701</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.6731</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9251,10 +9223,10 @@
         <v>299546</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.8615</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>258059</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.8615</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5</v>
@@ -9273,10 +9245,10 @@
         <v>189596</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.0926</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>207147</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.0926</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>121</v>
@@ -9295,10 +9267,10 @@
         <v>183956</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.9508</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>174899</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.9508</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>476</v>
@@ -9317,10 +9289,10 @@
         <v>158820</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.8963</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>142347</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.8963</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -9339,10 +9311,10 @@
         <v>135020</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.8185</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>110509</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.8185</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6</v>
@@ -9361,10 +9333,10 @@
         <v>107566</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>79335</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.7375</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9383,10 +9355,10 @@
         <v>61676</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.8139</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>50199</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.8139</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1</v>
@@ -9405,10 +9377,10 @@
         <v>50632</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>34327</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.678</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1</v>
@@ -9427,10 +9399,10 @@
         <v>33824</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.9992000000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>33798</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.9992000000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>300</v>
@@ -9449,10 +9421,10 @@
         <v>43076</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.6152000000000001</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>26502</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.6152000000000001</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2112</v>
@@ -9471,10 +9443,10 @@
         <v>29000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.6772</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>19640</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.6772</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>8495</v>
@@ -9493,10 +9465,10 @@
         <v>23000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.7504</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>17260</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.7504</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>8030</v>
@@ -9515,10 +9487,10 @@
         <v>22500</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.5839</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13137</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.5839</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>7200</v>
@@ -9537,10 +9509,10 @@
         <v>19355</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.5313</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10284</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.5313</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>6550</v>
@@ -9559,10 +9531,10 @@
         <v>16000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5395</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8632</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5395</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2399</v>
@@ -9581,10 +9553,10 @@
         <v>12553</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.4378</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5496</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.4378</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1500</v>
@@ -9603,10 +9575,10 @@
         <v>11208</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.4297</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4816</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.4297</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>750</v>
@@ -9625,10 +9597,10 @@
         <v>8800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.4442</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3909</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.4442</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>750</v>
@@ -9647,10 +9619,10 @@
         <v>7376</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.5316000000000001</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3921</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.5316000000000001</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>750</v>
@@ -9669,10 +9641,10 @@
         <v>8648</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3191</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.369</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>47</v>
@@ -9691,10 +9663,10 @@
         <v>8044</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.2254</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1813</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.2254</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>208</v>
@@ -9713,10 +9685,10 @@
         <v>10607</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.1698</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1801</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.1698</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>5</v>
@@ -9735,10 +9707,10 @@
         <v>9163</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.2193</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2009</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.2193</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>54</v>
@@ -9757,10 +9729,10 @@
         <v>8107</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1738</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.2144</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>768</v>
@@ -9779,10 +9751,10 @@
         <v>10041</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.1756</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1763</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.1756</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>82</v>
@@ -9801,10 +9773,10 @@
         <v>9470</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.1271</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1204</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.1271</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>236</v>
@@ -9823,10 +9795,10 @@
         <v>9176</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1233</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.1344</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9844,10 +9816,10 @@
         <v>7783</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.1506</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1172</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.1506</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9865,10 +9837,10 @@
         <v>8431</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.1317</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1110</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.1317</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9886,10 +9858,10 @@
         <v>7662</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.1233</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>945</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.1233</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9907,10 +9879,10 @@
         <v>6659</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.1237</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>824</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.1237</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9928,10 +9900,10 @@
         <v>7375</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.1216</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>897</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.1216</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9949,10 +9921,10 @@
         <v>6690</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.1541</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1031</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.1541</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10288,7 +10260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10367,10 +10339,10 @@
         <v>516634</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.7272000000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>375719.14</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.7272000000000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>304.69</v>
@@ -10389,10 +10361,10 @@
         <v>509179</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.6621</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>337149.41</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.6621</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>29.66</v>
@@ -10411,10 +10383,10 @@
         <v>543547</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.5558</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>302093.9</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.5558</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>15</v>
@@ -10433,10 +10405,10 @@
         <v>527347</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.6217999999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>327902.56</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.6217999999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15.66</v>
@@ -10455,10 +10427,10 @@
         <v>525435</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.5398999999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>283679.55</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.5398999999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>60.14</v>
@@ -10477,10 +10449,10 @@
         <v>501950</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.4685</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>235182</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.4685</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>60</v>
@@ -10499,10 +10471,10 @@
         <v>467327</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.4407</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>205955</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.4407</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>60</v>
@@ -10521,10 +10493,10 @@
         <v>454257</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.3909</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>177551.3</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.3909</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>30</v>
@@ -10543,10 +10515,10 @@
         <v>432094</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>180192.38</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.417</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.51</v>
@@ -10565,10 +10537,10 @@
         <v>372637</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.4192</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>156215.97</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.4192</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10585,10 +10557,10 @@
         <v>402434</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.3192</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>128446</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.3192</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>26</v>
@@ -10607,10 +10579,10 @@
         <v>390176</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.3417</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>133322.98</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.3417</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10629,10 +10601,10 @@
         <v>399467</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.4084</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>163151.73</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.4084</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10651,10 +10623,10 @@
         <v>360025</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.3669</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>132099</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.3669</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10673,10 +10645,10 @@
         <v>398104</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.3029</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>120581</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.3029</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3</v>
@@ -10695,10 +10667,10 @@
         <v>376604</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.2504</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>94300</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.2504</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10717,10 +10689,10 @@
         <v>356658</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.2408</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>85891</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.2408</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -10739,10 +10711,10 @@
         <v>350027</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>87561</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.2502</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -10761,10 +10733,10 @@
         <v>357707</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.2618</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>93658</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.2618</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10783,10 +10755,10 @@
         <v>336358</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.2666</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>89680</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.2666</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10805,10 +10777,10 @@
         <v>348434</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>88263</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.2533</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10827,10 +10799,10 @@
         <v>363575</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.1658</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>60268</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.1658</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>18</v>
@@ -10849,10 +10821,10 @@
         <v>429547</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>76030</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.177</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10871,10 +10843,10 @@
         <v>402836</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>64991</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.1613</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2.92</v>
@@ -10893,10 +10865,10 @@
         <v>301160</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.3144</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>94687</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.3144</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>6</v>
@@ -10915,10 +10887,10 @@
         <v>300119</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>35006</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.1166</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>262</v>
@@ -10937,10 +10909,10 @@
         <v>341320</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.2662</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>90870</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.2662</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -10959,10 +10931,10 @@
         <v>339470</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.2649</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>89928</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.2649</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>125</v>
@@ -10981,10 +10953,10 @@
         <v>349370</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.2447</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>85505</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.2447</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1</v>
@@ -11003,10 +10975,10 @@
         <v>325400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.2494</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>81163</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.2494</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>450</v>
@@ -11025,10 +10997,10 @@
         <v>320250</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>82729</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.2583</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -11045,10 +11017,10 @@
         <v>327060</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.2874</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>93999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.2874</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -11065,10 +11037,10 @@
         <v>309520</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.2921</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>90403</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.2921</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -11085,10 +11057,10 @@
         <v>328500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.2944</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>96722</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.2944</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -11105,10 +11077,10 @@
         <v>327980</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>82880</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.2527</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -11125,10 +11097,10 @@
         <v>325730</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.2613</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>85110</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.2613</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -11145,10 +11117,10 @@
         <v>310800</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.1851</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>57529</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.1851</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -11165,10 +11137,10 @@
         <v>326405</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>89913</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.2755</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -11185,10 +11157,10 @@
         <v>286777</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>130772</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.456</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -11205,10 +11177,10 @@
         <v>265051</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.2905</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>77000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.2905</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -11225,10 +11197,10 @@
         <v>270000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>45000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.1667</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -11245,10 +11217,10 @@
         <v>277000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>96941</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.35</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11265,10 +11237,10 @@
         <v>270000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>80460</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.298</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11285,10 +11257,10 @@
         <v>269878</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>91215</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.338</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11305,10 +11277,10 @@
         <v>269994</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.2867</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>77407</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.2867</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11325,10 +11297,10 @@
         <v>287190</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>72085</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.251</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11345,10 +11317,10 @@
         <v>238000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>72120</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.303</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11365,10 +11337,10 @@
         <v>229500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.2841</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>65192</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.2841</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11385,10 +11357,10 @@
         <v>229544</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.3279</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>75272</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.3279</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11405,10 +11377,10 @@
         <v>221726</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.4106</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>91039</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.4106</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11425,10 +11397,10 @@
         <v>213106</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.2974</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>63374</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.2974</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11445,10 +11417,10 @@
         <v>217916</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.3111</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>67784</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.3111</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11465,10 +11437,10 @@
         <v>219077</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>70806</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.3232</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11485,10 +11457,10 @@
         <v>228262</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.2347</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>53584</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.2347</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11505,10 +11477,10 @@
         <v>228355</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.2102</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>47993</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.2102</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11525,10 +11497,10 @@
         <v>210000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.3892</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>81724</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.3892</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11545,10 +11517,10 @@
         <v>200000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.3062</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>61236</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.3062</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11564,10 +11536,10 @@
         <v>180000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>50764</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.282</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11583,10 +11555,10 @@
         <v>240000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.2079</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>49900</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.2079</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11602,10 +11574,10 @@
         <v>163000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.2319</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>37800</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.2319</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11621,10 +11593,10 @@
         <v>225000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.1969</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>44300</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.1969</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11640,10 +11612,10 @@
         <v>220000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.2014</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>44300</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.2014</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11659,10 +11631,10 @@
         <v>220000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.2005</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>44100</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.2005</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11996,7 +11968,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12075,10 +12047,10 @@
         <v>612775</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.4833</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>296145</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.4833</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>43298.64</v>
@@ -12097,10 +12069,10 @@
         <v>602785</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.4994</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>301026</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.4994</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>11425.17</v>
@@ -12119,10 +12091,10 @@
         <v>600789</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.5029</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>302126</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.5029</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>59824.48</v>
@@ -12141,10 +12113,10 @@
         <v>588501</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.4584</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>269740</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.4584</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>46487.63</v>
@@ -12163,10 +12135,10 @@
         <v>581897</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.4459</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>259451</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.4459</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>56110.28</v>
@@ -12185,10 +12157,10 @@
         <v>577191</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.4146</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>239318</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.4146</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>62468.83</v>
@@ -12207,10 +12179,10 @@
         <v>590813</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.3991</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>235809</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.3991</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>61004.47</v>
@@ -12229,10 +12201,10 @@
         <v>720055</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>213871</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.297</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>57506.72</v>
@@ -12251,10 +12223,10 @@
         <v>702841</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>278299</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.396</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>11020.7</v>
@@ -12273,10 +12245,10 @@
         <v>704122</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.3888</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>273793</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.3888</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>38042.06</v>
@@ -12295,10 +12267,10 @@
         <v>689276</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.3717</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>256186</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.3717</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17003</v>
@@ -12317,10 +12289,10 @@
         <v>684333</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>253211</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.37</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>54886</v>
@@ -12339,10 +12311,10 @@
         <v>680484</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.3652</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>248524</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.3652</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>32516</v>
@@ -12361,10 +12333,10 @@
         <v>660711</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>235389</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.3563</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>47609</v>
@@ -12383,10 +12355,10 @@
         <v>635975</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>218487</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.3435</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>74119</v>
@@ -12405,10 +12377,10 @@
         <v>641337</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>202030</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.315</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>73363</v>
@@ -12427,10 +12399,10 @@
         <v>628928</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.3206</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>201651</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.3206</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>91281</v>
@@ -12449,10 +12421,10 @@
         <v>647135</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>212270</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.328</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>65443</v>
@@ -12471,10 +12443,10 @@
         <v>625384</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>208620</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.3336</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>54448</v>
@@ -12493,10 +12465,10 @@
         <v>638825</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.3068</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>196005</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.3068</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>40489</v>
@@ -12515,10 +12487,10 @@
         <v>590945</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.2877</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>170004</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.2877</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>59553</v>
@@ -12537,10 +12509,10 @@
         <v>582315</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.3002</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>174796</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.3002</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>56368</v>
@@ -12559,10 +12531,10 @@
         <v>665809</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.2789</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>185662</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.2789</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>33931</v>
@@ -12581,10 +12553,10 @@
         <v>705965</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.2788</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>196788</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.2788</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>70667.17999999999</v>
@@ -12603,10 +12575,10 @@
         <v>681120</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>205003</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.301</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>75331</v>
@@ -12625,10 +12597,10 @@
         <v>709798</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.3956</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>280801</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.3956</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>11948</v>
@@ -12647,10 +12619,10 @@
         <v>715671</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.3884</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>277966</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.3884</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>14858</v>
@@ -12669,10 +12641,10 @@
         <v>661923</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.3879</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>256777</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.3879</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>63</v>
@@ -12691,10 +12663,10 @@
         <v>738536</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.4017</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>296705</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.4017</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>5256</v>
@@ -12713,10 +12685,10 @@
         <v>698634</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.4732</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>330577</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.4732</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1038</v>
@@ -12735,10 +12707,10 @@
         <v>734124</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.4643</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>340885</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.4643</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2198</v>
@@ -12757,10 +12729,10 @@
         <v>731425</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.4491</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>328518</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.4491</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1821</v>
@@ -12779,10 +12751,10 @@
         <v>667897</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.4806</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>320967</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.4806</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12801,10 +12773,10 @@
         <v>664853</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.3854</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>256246</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.3854</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12823,10 +12795,10 @@
         <v>659522</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>392184</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.5946</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12845,10 +12817,10 @@
         <v>667179</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.5612999999999999</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>374491</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.5612999999999999</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12867,10 +12839,10 @@
         <v>648476</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.5069</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>328740</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.5069</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12889,10 +12861,10 @@
         <v>656558</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.6998</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>459477</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.6998</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12911,10 +12883,10 @@
         <v>649070</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.6637000000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>430789</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.6637000000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12933,10 +12905,10 @@
         <v>586242</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.5627000000000001</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>329903</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.5627000000000001</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12955,10 +12927,10 @@
         <v>590744</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.6437</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>380256</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.6437</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12977,10 +12949,10 @@
         <v>533273</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.6585</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>351149</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.6585</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12999,10 +12971,10 @@
         <v>504935</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.6647000000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>335625</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.6647000000000001</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -13021,10 +12993,10 @@
         <v>482521</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.6614</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>319141</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.6614</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -13043,10 +13015,10 @@
         <v>453569</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.7415</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>336326</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.7415</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -13065,10 +13037,10 @@
         <v>443866</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.6409</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>284490</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.6409</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -13087,10 +13059,10 @@
         <v>412743</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>249755</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.6051</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -13109,10 +13081,10 @@
         <v>407329</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>231796</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.5691000000000001</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -13131,10 +13103,10 @@
         <v>450949</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.6251</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>281887</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.6251</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13153,10 +13125,10 @@
         <v>508570</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.4766</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>242400</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.4766</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13175,10 +13147,10 @@
         <v>416175</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.4708</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>195916</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.4708</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13197,10 +13169,10 @@
         <v>430184</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.5147999999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>221469</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.5147999999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13219,10 +13191,10 @@
         <v>447693</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.4885</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>218701</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.4885</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13241,10 +13213,10 @@
         <v>443916</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.4439</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>197061</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.4439</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13263,10 +13235,10 @@
         <v>437637</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.4825</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>211162</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.4825</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13285,10 +13257,10 @@
         <v>432691</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.3451</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>149338</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.3451</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13307,10 +13279,10 @@
         <v>473078</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.4115</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>194692</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.4115</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13328,10 +13300,10 @@
         <v>455866</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.3793</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>172900</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.3793</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13349,10 +13321,10 @@
         <v>482317</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>160823</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.3334</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13370,10 +13342,10 @@
         <v>487136</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.3155</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>153685</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.3155</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13391,10 +13363,10 @@
         <v>469644</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.3055</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>143495</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.3055</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13412,10 +13384,10 @@
         <v>464762</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>140363</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.302</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13433,10 +13405,10 @@
         <v>474270</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>155901</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.3287</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Granos de cacao.xlsx
+++ b/Resultados/Mercado mundial - Granos de cacao.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Côte d'Ivoire" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ghana" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ecuador" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Côte d'Ivoire" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Ghana" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Ecuador" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,10 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +408,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +434,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +490,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +516,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +572,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +598,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
+              <f>'Países exportadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +654,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +680,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +736,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +762,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +818,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +844,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +900,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +926,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +982,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1008,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1064,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1090,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1164,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1204,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1234,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1274,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1286,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1304,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1344,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1356,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1374,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1414,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1441,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1463,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1478,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1493,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1515,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1530,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1545,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1567,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1582,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1597,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1619,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1634,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1649,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2061,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2140,10 @@
         <v>11654929</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5600100.42</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.4805</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5600100.42</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3920895.28</v>
@@ -2160,10 +2162,10 @@
         <v>11656975</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5602558.97</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.4806</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5602558.97</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3752942.53</v>
@@ -2182,10 +2184,10 @@
         <v>11981268</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5759894.6</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.4807</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5759894.6</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4066574.41</v>
@@ -2204,10 +2206,10 @@
         <v>11722785</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5606584.09</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.4783</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5606584.09</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3898306.28</v>
@@ -2226,10 +2228,10 @@
         <v>11351146</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5520075.04</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.4863</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5520075.04</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4034188.76</v>
@@ -2248,10 +2250,10 @@
         <v>11410703</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5505866.86</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.4825</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5505866.86</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4090173.06</v>
@@ -2270,10 +2272,10 @@
         <v>11499069</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5235269.43</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.4553</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5235269.43</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3938012.78</v>
@@ -2292,10 +2294,10 @@
         <v>10699320</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4777618.84</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.4465</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4777618.84</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3349115.97</v>
@@ -2314,10 +2316,10 @@
         <v>10957003</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4817236.1</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.4396</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4817236.1</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2746085.34</v>
@@ -2336,10 +2338,10 @@
         <v>10577940</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4742114.16</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.4483</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4742114.16</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3130120.01</v>
@@ -2358,10 +2360,10 @@
         <v>10177105</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4486395.35</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.4408</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>4486395.35</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2943227</v>
@@ -2380,10 +2382,10 @@
         <v>10313477</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4613754.52</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.4474</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4613754.52</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3130556</v>
@@ -2402,10 +2404,10 @@
         <v>10252360</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4553617.54</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.4442</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4553617.54</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3354331</v>
@@ -2424,10 +2426,10 @@
         <v>9592214</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4328769.53</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.4513</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4328769.53</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2962919</v>
@@ -2446,10 +2448,10 @@
         <v>9437648</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4211454.86</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.4462</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4211454.86</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3103015</v>
@@ -2468,10 +2470,10 @@
         <v>9561187</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4265983.94</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.4462</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4265983.94</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3084291</v>
@@ -2490,10 +2492,10 @@
         <v>8644002</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3898909.87</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.4511</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3898909.87</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3191461</v>
@@ -2512,10 +2514,10 @@
         <v>8514758</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4299922.41</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.505</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>4299922.41</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3161617</v>
@@ -2534,10 +2536,10 @@
         <v>8706714</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4043867.67</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.4645</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>4043867.67</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>3116625</v>
@@ -2556,10 +2558,10 @@
         <v>8514053</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4069753.28</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.478</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4069753.28</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2794726</v>
@@ -2578,10 +2580,10 @@
         <v>7693381</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3705144.75</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.4816</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>3705144.75</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2693749</v>
@@ -2600,10 +2602,10 @@
         <v>7013880</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>3298178.12</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.4702</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3298178.12</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2255916</v>
@@ -2622,10 +2624,10 @@
         <v>7149274</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3222354.04</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.4507</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3222354.04</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2464735</v>
@@ -2644,10 +2646,10 @@
         <v>7613598</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3338446.71</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.4385</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3338446.71</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2455367.67</v>
@@ -2666,10 +2668,10 @@
         <v>6862088</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2975444.16</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.4336</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2975444.16</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2355639.15</v>
@@ -2688,10 +2690,10 @@
         <v>6672750</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3302840.27</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.495</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3302840.27</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2122196</v>
@@ -2710,10 +2712,10 @@
         <v>6435946</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3017083.12</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.4688</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3017083.12</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1972527.11</v>
@@ -2732,10 +2734,10 @@
         <v>6652960</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3237670.67</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.4867</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3237670.67</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2143960</v>
@@ -2754,10 +2756,10 @@
         <v>6556125</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2985764.79</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.4554</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2985764.79</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1919079.01</v>
@@ -2776,10 +2778,10 @@
         <v>5762503</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2671268.65</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.4636</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2671268.65</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1881048</v>
@@ -2798,10 +2800,10 @@
         <v>5675475</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2672283.72</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.4708</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2672283.72</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1851300</v>
@@ -2820,10 +2822,10 @@
         <v>5726224</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2677030.92</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.4675</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2677030.92</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1871080</v>
@@ -2842,10 +2844,10 @@
         <v>5654463</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2521946.08</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.446</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2521946.08</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1883379</v>
@@ -2864,10 +2866,10 @@
         <v>5721260</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2532122</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.4426</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2532122</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1766145</v>
@@ -2886,10 +2888,10 @@
         <v>5514886</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2640977</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.4789</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2640977</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1659964</v>
@@ -2908,10 +2910,10 @@
         <v>5655093</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2563305</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.4533</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2563305</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1544070</v>
@@ -2930,10 +2932,10 @@
         <v>5274994</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2055901</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.3897</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2055901</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1476441</v>
@@ -2952,10 +2954,10 @@
         <v>5247548</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2118377</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.4037</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2118377</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1412765</v>
@@ -2974,10 +2976,10 @@
         <v>5045942</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2013982</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.3991</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2013982</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1480425</v>
@@ -2996,10 +2998,10 @@
         <v>4768084</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1810579</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.3797</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1810579</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1338875</v>
@@ -3018,10 +3020,10 @@
         <v>4658864</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1604641</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.3444</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1604641</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1261495</v>
@@ -3040,10 +3042,10 @@
         <v>4678307</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1615319</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.3453</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1615319</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1270476</v>
@@ -3062,10 +3064,10 @@
         <v>4848246</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1735254</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.3579</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1735254</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1242199</v>
@@ -3084,10 +3086,10 @@
         <v>4740285</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1670637</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.3524</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1670637</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1070043</v>
@@ -3106,10 +3108,10 @@
         <v>4632686</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1659869</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.3583</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1659869</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1030742</v>
@@ -3128,10 +3130,10 @@
         <v>4581485</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1495374</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.3264</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1495374</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1104404</v>
@@ -3150,10 +3152,10 @@
         <v>4436702</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1452505</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.3274</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1452505</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1007221</v>
@@ -3172,10 +3174,10 @@
         <v>4309551</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1366511</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.3171</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1366511</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1161086</v>
@@ -3194,10 +3196,10 @@
         <v>4360617</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1561625</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.3581</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1561625</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1193779</v>
@@ -3216,10 +3218,10 @@
         <v>4398742</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1556439</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.3538</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1556439</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1158423</v>
@@ -3238,10 +3240,10 @@
         <v>4316614</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1402063</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.3248</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1402063</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1206515</v>
@@ -3260,10 +3262,10 @@
         <v>4299294</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1510723</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.3514</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1510723</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1261836</v>
@@ -3282,10 +3284,10 @@
         <v>4423250</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1638853</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.3705</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1638853</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1238715</v>
@@ -3304,10 +3306,10 @@
         <v>4358444</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1543399</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.3541</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1543399</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1118739</v>
@@ -3326,10 +3328,10 @@
         <v>4260037</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1418863</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.3331</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1418863</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1044597</v>
@@ -3348,10 +3350,10 @@
         <v>4079239</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1246581</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.3056</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1246581</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1107429</v>
@@ -3370,10 +3372,10 @@
         <v>4220776</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1390511</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.3294</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1390511</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1103872</v>
@@ -3391,10 +3393,10 @@
         <v>4076650</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1344376</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.3298</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1344376</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1244743</v>
@@ -3412,10 +3414,10 @@
         <v>4591284</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1229159</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.2677</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1229159</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1237732</v>
@@ -3433,10 +3435,10 @@
         <v>4544137</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1544590</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.3399</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1544590</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1047522</v>
@@ -3454,10 +3456,10 @@
         <v>4515935</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1280491</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.2835</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1280491</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1058061</v>
@@ -3475,10 +3477,10 @@
         <v>4468672</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1213517</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.2716</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1213517</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1072336</v>
@@ -3496,10 +3498,10 @@
         <v>4403381</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1186344</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.2694</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1186344</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>1023170</v>
@@ -3786,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3938,7 +3940,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3954,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Camerún</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3980,7 +3982,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3996,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>República Dominicana</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4022,35 +4024,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>382831.7400000002</v>
+        <v>29047.4</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.06836158484458038</v>
+        <v>0.005186942701288204</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>353784.3399999999</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.06317464214329212</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>5600100.42</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4071,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4127,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4271,7 +4282,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Camerún</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4296,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4310,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4324,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4341,7 +4352,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4355,36 +4366,44 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>357859.0900000003</v>
+        <v>19</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.0940062252264853</v>
+        <v>4.991121726999359e-06</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>3806759.49</v>
+        <v>357840.0900000003</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>1</v>
+        <v>0.0940012341047583</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>3806759.49</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4396,126 +4415,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="29" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="37" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="37" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="37" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="37" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="37" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="37" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="37" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="37" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="37" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="37" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="38" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="38" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="38" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="38" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="38" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="38" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="38" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="38" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="38" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4556,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4652,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4666,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4680,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4694,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4703,7 +4722,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4736,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4750,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4778,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4792,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>687303.3999999999</v>
+        <v>16776.07</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.175292465347353</v>
+        <v>0.004278632506604461</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>670527.3300000001</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.1710138328407486</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>3920895.28</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4838,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="39" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="39" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="39" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="39" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="39" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="39" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="39" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="39" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="39" t="n"/>
+      <c r="D35" s="38" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="39" t="n"/>
+      <c r="D36" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4960,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5039,10 @@
         <v>4791089</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2377442.05</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.4962</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2377442.05</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.38</v>
@@ -5033,10 +5061,10 @@
         <v>4716003</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2358991</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.5002</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2358991</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.02</v>
@@ -5055,10 +5083,10 @@
         <v>4416359</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2228459</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.5046</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2228459</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.17</v>
@@ -5077,10 +5105,10 @@
         <v>4309160</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.5105</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2200000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.13</v>
@@ -5099,10 +5127,10 @@
         <v>4308544</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2235043</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.5187</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2235043</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.31</v>
@@ -5121,10 +5149,10 @@
         <v>4072832</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2113189</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.5189</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2113189</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.12</v>
@@ -5143,10 +5171,10 @@
         <v>3982695</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2034000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.5107</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2034000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.5</v>
@@ -5165,10 +5193,10 @@
         <v>3168749</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1634000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.5157</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1634000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.29</v>
@@ -5187,10 +5215,10 @@
         <v>3458163</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1796000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.5194</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1796000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.25</v>
@@ -5209,10 +5237,10 @@
         <v>3084498</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1637777.56</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.531</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1637777.56</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.8</v>
@@ -5231,10 +5259,10 @@
         <v>2731411</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1448992</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.5305</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1448992</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -5253,10 +5281,10 @@
         <v>2746080</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1485882</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.5411</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1485882</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5275,10 +5303,10 @@
         <v>2685121</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1511255</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.5628</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1511255</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5297,10 +5325,10 @@
         <v>2278786</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1301347</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.5711000000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1301347</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5319,10 +5347,10 @@
         <v>2176162</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1223153</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.5621</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1223153</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5341,10 +5369,10 @@
         <v>2300000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1382441</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.6011</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1382441</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5363,10 +5391,10 @@
         <v>2372542</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1229908</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.5184</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1229908</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5385,10 +5413,10 @@
         <v>2281290</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1408854</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.6176</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1408854</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5407,10 +5435,10 @@
         <v>2193548</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1286330</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.5864</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1286330</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5429,10 +5457,10 @@
         <v>2050000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1407213</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.6864</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1407213</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>12484</v>
@@ -5451,10 +5479,10 @@
         <v>2000000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1351546</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.6758</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1351546</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5473,10 +5501,10 @@
         <v>1880000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1264708</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.6727000000000001</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1264708</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5495,10 +5523,10 @@
         <v>1777550</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1212428</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.6821</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1212428</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5517,10 +5545,10 @@
         <v>2000000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1401101</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.7006</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1401101</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>33.34</v>
@@ -5539,10 +5567,10 @@
         <v>1900000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1163025</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.6121</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1163025</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5561,10 +5589,10 @@
         <v>1800000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1201119</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.6673</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1201119</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5583,10 +5611,10 @@
         <v>1823035</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1119110</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.6139</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1119110</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5605,10 +5633,10 @@
         <v>2052878</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1235300</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.6017</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1235300</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5627,10 +5655,10 @@
         <v>1900000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.5895</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1120000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5649,10 +5677,10 @@
         <v>1500000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>808662</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.5391</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>808662</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5671,10 +5699,10 @@
         <v>1425953</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>803799</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.5637000000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>803799</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5693,10 +5721,10 @@
         <v>1450000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>813009</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.5607000000000001</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>813009</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5715,10 +5743,10 @@
         <v>1412000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>764708</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.5416</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>764708</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5737,10 +5765,10 @@
         <v>1566500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>807501</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.5155</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>807501</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5759,10 +5787,10 @@
         <v>1373300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>780521</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.5684</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>780521</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5781,10 +5809,10 @@
         <v>1566500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>832177</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.5312</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>832177</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5803,10 +5831,10 @@
         <v>1233700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>664031</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.5382</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>664031</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5825,10 +5853,10 @@
         <v>1173700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>610680</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.5203</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>610680</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5847,10 +5875,10 @@
         <v>1099800</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>555115</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.5047</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>555115</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5869,10 +5897,10 @@
         <v>1028700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>565042</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.5492999999999999</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>565042</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5891,10 +5919,10 @@
         <v>952600</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>411081</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.4315</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>411081</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5913,10 +5941,10 @@
         <v>953000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>360445</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.3782</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>360445</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5935,10 +5963,10 @@
         <v>901300</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>464751</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.5156000000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>464751</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5957,10 +5985,10 @@
         <v>836700</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>417222</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.4987</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>417222</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5979,10 +6007,10 @@
         <v>784700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>397759</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5069</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>397759</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6001,10 +6029,10 @@
         <v>740000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>318381</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.4302</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>318381</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6023,10 +6051,10 @@
         <v>698000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>303621</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.435</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>303621</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6045,10 +6073,10 @@
         <v>526000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>232330</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.4417</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>232330</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6067,10 +6095,10 @@
         <v>498000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>231136</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.4641</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>231136</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6089,10 +6117,10 @@
         <v>471000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>241511</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.5127999999999999</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>241511</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6111,10 +6139,10 @@
         <v>497000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>208522</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.4196</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>208522</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6133,10 +6161,10 @@
         <v>440500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>185445</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.421</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>185445</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6155,10 +6183,10 @@
         <v>422800</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>225814</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.5341</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>225814</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6177,10 +6205,10 @@
         <v>404300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>179156</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.4431</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>179156</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6199,10 +6227,10 @@
         <v>386800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>180706</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.4672</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>180706</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6221,10 +6249,10 @@
         <v>371100</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>144476</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.3893</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>144476</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6271,10 @@
         <v>358000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>146640</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.4096</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>146640</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6264,10 +6292,10 @@
         <v>342800</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>149662</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.4366</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>149662</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6313,10 @@
         <v>327000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>121772</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.3724</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>121772</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>6780</v>
@@ -6306,10 +6334,10 @@
         <v>308000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>139069</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.4515</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>139069</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6355,10 @@
         <v>292000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.3938</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>115000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6376,10 @@
         <v>277000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.3971</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6397,10 @@
         <v>260000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.3269</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>7532</v>
@@ -6708,7 +6736,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6815,10 @@
         <v>1150455</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>653700</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.5682</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>653700</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>6136.89</v>
@@ -6809,10 +6837,10 @@
         <v>1219305</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>683300</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.5604</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>683300</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.01</v>
@@ -6831,10 +6859,10 @@
         <v>1895400</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1047385</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.5526</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1047385</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1.5</v>
@@ -6853,10 +6881,10 @@
         <v>1476750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.5417000000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5080.34</v>
@@ -6875,10 +6903,10 @@
         <v>1536624</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>811700</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.5282</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>811700</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.3</v>
@@ -6897,10 +6925,10 @@
         <v>1726616</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>904700</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.524</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>904700</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1.07</v>
@@ -6919,10 +6947,10 @@
         <v>1863830</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>969300</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.5201</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>969300</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.18</v>
@@ -6941,10 +6969,10 @@
         <v>1683765</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>858720</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.51</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>858720</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.02</v>
@@ -6963,10 +6991,10 @@
         <v>1683765</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>858720</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.51</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>858720</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>14492.22</v>
@@ -6985,10 +7013,10 @@
         <v>1683765</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>858720</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.51</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>858720</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2.45</v>
@@ -7007,10 +7035,10 @@
         <v>1600300</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>835466</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.5221</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>835466</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>10</v>
@@ -7029,10 +7057,10 @@
         <v>1600300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>879348</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.5495</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>879348</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7051,10 +7079,10 @@
         <v>1600300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>700020</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.4374</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>700020</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7073,10 +7101,10 @@
         <v>1600200</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>632037.4</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.395</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>632037.4</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7095,10 +7123,10 @@
         <v>1600000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>710638</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.4441000000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>710638</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7117,10 +7145,10 @@
         <v>1822500</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>680781</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.3735</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>680781</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7139,10 +7167,10 @@
         <v>1463000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>614500</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.42</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>614500</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7161,10 +7189,10 @@
         <v>1835000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>734000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.4</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>734000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>65</v>
@@ -7183,10 +7211,10 @@
         <v>1850000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.4</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>740000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -7205,10 +7233,10 @@
         <v>2000000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>737000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.3685</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>737000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>840</v>
@@ -7227,10 +7255,10 @@
         <v>1500000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>497000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.3313</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>497000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7249,10 +7277,10 @@
         <v>1195000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>340562</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.285</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>340562</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1</v>
@@ -7271,10 +7299,10 @@
         <v>1350000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>389591</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.2886</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>389591</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -7293,10 +7321,10 @@
         <v>1500000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>436600</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.2911</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>436600</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -7315,10 +7343,10 @@
         <v>1300000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>434200</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.334</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>434200</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>10</v>
@@ -7337,10 +7365,10 @@
         <v>1364530</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>409360</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.3</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>409360</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>51</v>
@@ -7359,10 +7387,10 @@
         <v>1074970</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>322490</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.3</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>322490</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -7381,10 +7409,10 @@
         <v>1050000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>403000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.3838</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>403000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13</v>
@@ -7403,10 +7431,10 @@
         <v>1000000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>403900</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.4039</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>403900</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -7425,10 +7453,10 @@
         <v>686531</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>288075</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.4196</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>288075</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -7447,10 +7475,10 @@
         <v>702061</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>254652</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.3627</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>254652</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -7469,10 +7497,10 @@
         <v>720898</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>312122</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.433</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>312122</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -7491,10 +7519,10 @@
         <v>720898</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>241796</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.3354</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>241796</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7513,10 +7541,10 @@
         <v>693249</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>293355</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.4232</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>293355</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7535,10 +7563,10 @@
         <v>700286</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>295052</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.4213</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>295052</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7557,10 +7585,10 @@
         <v>720071</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>246700</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.3426</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>246700</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7579,10 +7607,10 @@
         <v>739371</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>188170</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.2545</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>188170</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7601,10 +7629,10 @@
         <v>912000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>226400</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.2482</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>226400</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7623,10 +7651,10 @@
         <v>900000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>194400</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.216</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>194400</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7645,10 +7673,10 @@
         <v>800000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>166700</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.2084</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>166700</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7667,10 +7695,10 @@
         <v>800000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>168100</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.2101</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>168100</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7689,10 +7717,10 @@
         <v>900000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>202500</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.225</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>202500</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7711,10 +7739,10 @@
         <v>1200000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>246500</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.2054</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>246500</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7733,10 +7761,10 @@
         <v>1200000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>277200</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.231</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>277200</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7755,10 +7783,10 @@
         <v>1200000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>280800</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.234</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>280800</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7777,10 +7805,10 @@
         <v>1200000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>268200</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.2235</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>268200</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7799,10 +7827,10 @@
         <v>1200000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>277400</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.2312</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>277400</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7821,10 +7849,10 @@
         <v>1300000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>326700</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.2513</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>326700</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7843,10 +7871,10 @@
         <v>1400000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>397300</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.2838</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>397300</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7865,10 +7893,10 @@
         <v>1400000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>385100</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.2751</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>385100</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7887,10 +7915,10 @@
         <v>1400000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>343000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.245</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>343000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7909,10 +7937,10 @@
         <v>1450000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>415700</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.2867</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>415700</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7931,10 +7959,10 @@
         <v>1500000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>470000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.3133</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>470000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7953,10 +7981,10 @@
         <v>1451000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>406000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.2798</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>406000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7975,10 +8003,10 @@
         <v>1450000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>414300</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.2857</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>414300</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7997,10 +8025,10 @@
         <v>1300000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>327000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.2515</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>327000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>27705</v>
@@ -8019,10 +8047,10 @@
         <v>1450000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>423500</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.2921</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>423500</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8040,10 +8068,10 @@
         <v>1350000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>381100</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.2823</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>381100</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>60017</v>
@@ -8061,10 +8089,10 @@
         <v>1830000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>415800</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.2272</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>415800</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8082,10 +8110,10 @@
         <v>1848000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>580500</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.3141</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>580500</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8103,10 +8131,10 @@
         <v>1820000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>427800</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.2351</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>427800</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>21260</v>
@@ -8124,10 +8152,10 @@
         <v>1800000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>428100</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.2378</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>428100</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>33380</v>
@@ -8145,10 +8173,10 @@
         <v>1756000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>415200</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.2364</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>415200</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>6650</v>
@@ -8484,7 +8512,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8591,10 @@
         <v>1410871</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>641741.02</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.4549</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>641741.02</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>276682.66</v>
@@ -8585,10 +8613,10 @@
         <v>1421014</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>650611.6899999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.4579</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>650611.6899999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>239152.38</v>
@@ -8607,10 +8635,10 @@
         <v>1421014</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>650611.6899999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.4579</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>650611.6899999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>252121.41</v>
@@ -8629,10 +8657,10 @@
         <v>1508955</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>720660</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.4776</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>720660</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>198838.24</v>
@@ -8651,10 +8679,10 @@
         <v>1560945</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>734795</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.4707</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>734795</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>243462.3</v>
@@ -8673,10 +8701,10 @@
         <v>1611014</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>767280</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.4763</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>767280</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>239377.42</v>
@@ -8695,10 +8723,10 @@
         <v>1658421</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>590684</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.3562</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>590684</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>246083.97</v>
@@ -8717,10 +8745,10 @@
         <v>1701351</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>656817</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.3861</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>656817</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>61015.95</v>
@@ -8739,10 +8767,10 @@
         <v>1709284</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>593331</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.3471</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>593331</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>53371.88</v>
@@ -8761,10 +8789,10 @@
         <v>1727400</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>728400</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.4217</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>728400</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>109409.56</v>
@@ -8783,10 +8811,10 @@
         <v>1740600</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>720900</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.4142</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>720900</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>30766</v>
@@ -8805,10 +8833,10 @@
         <v>1852900</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>740500</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.3996</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>740500</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>23943</v>
@@ -8827,10 +8855,10 @@
         <v>1732600</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>712200</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.4111</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>712200</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>19100</v>
@@ -8849,10 +8877,10 @@
         <v>1651539</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>844626</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.5114</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>844626</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>24831</v>
@@ -8871,10 +8899,10 @@
         <v>1587136</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>809583</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.5101</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>809583</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>27230</v>
@@ -8893,10 +8921,10 @@
         <v>1425216</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>803593</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.5638</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>803593</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>22968</v>
@@ -8915,10 +8943,10 @@
         <v>923968</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>740006</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.8008999999999999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>740006</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>19655</v>
@@ -8937,10 +8965,10 @@
         <v>905730</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>769386</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.8495</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>769386</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>26819</v>
@@ -8959,10 +8987,10 @@
         <v>1167046</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>748827</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.6416000000000001</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>748827</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>30292</v>
@@ -8981,10 +9009,10 @@
         <v>1090960</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>691704</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.634</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>691704</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>31083</v>
@@ -9003,10 +9031,10 @@
         <v>961107</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>695361</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.7235</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>695361</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>23896</v>
@@ -9025,10 +9053,10 @@
         <v>776901</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>619192</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.797</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>619192</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>23962</v>
@@ -9047,10 +9075,10 @@
         <v>765405</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>536804</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7012999999999999</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>536804</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>25617</v>
@@ -9069,10 +9097,10 @@
         <v>749917</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>421142</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.5616</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>421142</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>12625.02</v>
@@ -9091,10 +9119,10 @@
         <v>667897</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>367475</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.5502</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>367475</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8628</v>
@@ -9113,10 +9141,10 @@
         <v>403166</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>456499</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.1323</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>456499</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>5204</v>
@@ -9135,10 +9163,10 @@
         <v>386605</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>329700</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.8528</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>329700</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>797</v>
@@ -9157,10 +9185,10 @@
         <v>398655</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>350800</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.88</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>350800</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9179,10 +9207,10 @@
         <v>374261</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>278400</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.7439</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>278400</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>50</v>
@@ -9201,10 +9229,10 @@
         <v>359086</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>241701</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.6731</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>241701</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9223,10 +9251,10 @@
         <v>299546</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>258059</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.8615</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>258059</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5</v>
@@ -9245,10 +9273,10 @@
         <v>189596</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>207147</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.0926</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>207147</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>121</v>
@@ -9267,10 +9295,10 @@
         <v>183956</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>174899</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.9508</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>174899</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>476</v>
@@ -9289,10 +9317,10 @@
         <v>158820</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>142347</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.8963</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>142347</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -9311,10 +9339,10 @@
         <v>135020</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>110509</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.8185</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>110509</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6</v>
@@ -9333,10 +9361,10 @@
         <v>107566</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>79335</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.7375</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>79335</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9355,10 +9383,10 @@
         <v>61676</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>50199</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.8139</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>50199</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1</v>
@@ -9377,10 +9405,10 @@
         <v>50632</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>34327</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.678</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>34327</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1</v>
@@ -9399,10 +9427,10 @@
         <v>33824</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>33798</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.9992000000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>33798</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>300</v>
@@ -9421,10 +9449,10 @@
         <v>43076</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>26502</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.6152000000000001</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>26502</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2112</v>
@@ -9443,10 +9471,10 @@
         <v>29000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>19640</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.6772</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>19640</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>8495</v>
@@ -9465,10 +9493,10 @@
         <v>23000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>17260</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.7504</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>17260</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>8030</v>
@@ -9487,10 +9515,10 @@
         <v>22500</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13137</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.5839</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13137</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>7200</v>
@@ -9509,10 +9537,10 @@
         <v>19355</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10284</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.5313</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10284</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>6550</v>
@@ -9531,10 +9559,10 @@
         <v>16000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8632</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5395</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8632</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2399</v>
@@ -9553,10 +9581,10 @@
         <v>12553</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5496</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.4378</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5496</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1500</v>
@@ -9575,10 +9603,10 @@
         <v>11208</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4816</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.4297</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4816</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>750</v>
@@ -9597,10 +9625,10 @@
         <v>8800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3909</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.4442</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3909</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>750</v>
@@ -9619,10 +9647,10 @@
         <v>7376</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3921</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.5316000000000001</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3921</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>750</v>
@@ -9641,10 +9669,10 @@
         <v>8648</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3191</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.369</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3191</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>47</v>
@@ -9663,10 +9691,10 @@
         <v>8044</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1813</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.2254</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1813</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>208</v>
@@ -9685,10 +9713,10 @@
         <v>10607</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.1698</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1801</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>5</v>
@@ -9707,10 +9735,10 @@
         <v>9163</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.2193</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2009</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>54</v>
@@ -9729,10 +9757,10 @@
         <v>8107</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.2144</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1738</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>768</v>
@@ -9751,10 +9779,10 @@
         <v>10041</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1763</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.1756</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1763</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>82</v>
@@ -9773,10 +9801,10 @@
         <v>9470</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.1271</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1204</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>236</v>
@@ -9795,10 +9823,10 @@
         <v>9176</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1233</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.1344</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1233</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9816,10 +9844,10 @@
         <v>7783</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1172</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.1506</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1172</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9837,10 +9865,10 @@
         <v>8431</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.1317</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1110</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9858,10 +9886,10 @@
         <v>7662</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>945</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.1233</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>945</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9879,10 +9907,10 @@
         <v>6659</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>824</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.1237</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>824</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9900,10 +9928,10 @@
         <v>7375</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>897</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.1216</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>897</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9921,10 +9949,10 @@
         <v>6690</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.1541</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1031</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10260,7 +10288,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10339,10 +10367,10 @@
         <v>516634</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>375719.14</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.7272000000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>375719.14</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>304.69</v>
@@ -10361,10 +10389,10 @@
         <v>509179</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>337149.41</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.6621</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>337149.41</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>29.66</v>
@@ -10383,10 +10411,10 @@
         <v>543547</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>302093.9</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.5558</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>302093.9</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>15</v>
@@ -10405,10 +10433,10 @@
         <v>527347</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>327902.56</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.6217999999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>327902.56</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15.66</v>
@@ -10427,10 +10455,10 @@
         <v>525435</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>283679.55</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.5398999999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>283679.55</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>60.14</v>
@@ -10449,10 +10477,10 @@
         <v>501950</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>235182</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.4685</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>235182</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>60</v>
@@ -10471,10 +10499,10 @@
         <v>467327</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>205955</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.4407</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>205955</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>60</v>
@@ -10493,10 +10521,10 @@
         <v>454257</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>177551.3</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.3909</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>177551.3</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>30</v>
@@ -10515,10 +10543,10 @@
         <v>432094</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>180192.38</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.417</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>180192.38</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.51</v>
@@ -10537,10 +10565,10 @@
         <v>372637</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>156215.97</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.4192</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>156215.97</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10557,10 +10585,10 @@
         <v>402434</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>128446</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.3192</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>128446</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>26</v>
@@ -10579,10 +10607,10 @@
         <v>390176</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>133322.98</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.3417</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>133322.98</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10601,10 +10629,10 @@
         <v>399467</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>163151.73</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.4084</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>163151.73</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10623,10 +10651,10 @@
         <v>360025</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>132099</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.3669</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>132099</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10645,10 +10673,10 @@
         <v>398104</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>120581</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.3029</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>120581</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3</v>
@@ -10667,10 +10695,10 @@
         <v>376604</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>94300</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.2504</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>94300</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10689,10 +10717,10 @@
         <v>356658</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>85891</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.2408</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>85891</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -10711,10 +10739,10 @@
         <v>350027</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>87561</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.2502</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>87561</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -10733,10 +10761,10 @@
         <v>357707</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>93658</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.2618</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>93658</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10755,10 +10783,10 @@
         <v>336358</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>89680</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.2666</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>89680</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10777,10 +10805,10 @@
         <v>348434</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>88263</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.2533</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>88263</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10799,10 +10827,10 @@
         <v>363575</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>60268</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.1658</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>60268</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>18</v>
@@ -10821,10 +10849,10 @@
         <v>429547</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>76030</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.177</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>76030</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10843,10 +10871,10 @@
         <v>402836</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>64991</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.1613</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>64991</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2.92</v>
@@ -10865,10 +10893,10 @@
         <v>301160</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>94687</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.3144</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>94687</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>6</v>
@@ -10887,10 +10915,10 @@
         <v>300119</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>35006</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.1166</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>35006</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>262</v>
@@ -10909,10 +10937,10 @@
         <v>341320</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>90870</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.2662</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>90870</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -10931,10 +10959,10 @@
         <v>339470</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>89928</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.2649</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>89928</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>125</v>
@@ -10953,10 +10981,10 @@
         <v>349370</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>85505</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.2447</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>85505</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1</v>
@@ -10975,10 +11003,10 @@
         <v>325400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>81163</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.2494</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>81163</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>450</v>
@@ -10997,10 +11025,10 @@
         <v>320250</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>82729</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.2583</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>82729</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -11017,10 +11045,10 @@
         <v>327060</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>93999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.2874</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>93999</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -11037,10 +11065,10 @@
         <v>309520</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>90403</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.2921</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>90403</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -11057,10 +11085,10 @@
         <v>328500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>96722</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.2944</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>96722</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -11077,10 +11105,10 @@
         <v>327980</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>82880</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.2527</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>82880</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -11097,10 +11125,10 @@
         <v>325730</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>85110</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.2613</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>85110</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -11117,10 +11145,10 @@
         <v>310800</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>57529</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.1851</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>57529</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -11137,10 +11165,10 @@
         <v>326405</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>89913</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.2755</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>89913</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -11157,10 +11185,10 @@
         <v>286777</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>130772</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.456</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>130772</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -11177,10 +11205,10 @@
         <v>265051</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.2905</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>77000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -11197,10 +11225,10 @@
         <v>270000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.1667</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>45000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -11217,10 +11245,10 @@
         <v>277000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>96941</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.35</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>96941</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11237,10 +11265,10 @@
         <v>270000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>80460</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.298</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>80460</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11257,10 +11285,10 @@
         <v>269878</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>91215</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.338</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>91215</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11277,10 +11305,10 @@
         <v>269994</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>77407</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.2867</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>77407</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11297,10 +11325,10 @@
         <v>287190</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>72085</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.251</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>72085</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11317,10 +11345,10 @@
         <v>238000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>72120</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.303</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>72120</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11337,10 +11365,10 @@
         <v>229500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>65192</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.2841</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>65192</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11357,10 +11385,10 @@
         <v>229544</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>75272</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.3279</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>75272</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11377,10 +11405,10 @@
         <v>221726</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>91039</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.4106</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>91039</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11397,10 +11425,10 @@
         <v>213106</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>63374</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.2974</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>63374</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11417,10 +11445,10 @@
         <v>217916</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>67784</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.3111</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>67784</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11437,10 +11465,10 @@
         <v>219077</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>70806</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.3232</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>70806</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11457,10 +11485,10 @@
         <v>228262</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>53584</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.2347</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>53584</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11477,10 +11505,10 @@
         <v>228355</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>47993</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.2102</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>47993</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11497,10 +11525,10 @@
         <v>210000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>81724</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.3892</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>81724</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11517,10 +11545,10 @@
         <v>200000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>61236</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.3062</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>61236</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11536,10 +11564,10 @@
         <v>180000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>50764</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.282</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>50764</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11555,10 +11583,10 @@
         <v>240000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>49900</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.2079</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>49900</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11574,10 +11602,10 @@
         <v>163000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>37800</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.2319</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>37800</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11593,10 +11621,10 @@
         <v>225000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>44300</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.1969</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>44300</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11612,10 +11640,10 @@
         <v>220000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>44300</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.2014</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>44300</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11631,10 +11659,10 @@
         <v>220000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.2005</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>44100</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11968,7 +11996,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12047,10 +12075,10 @@
         <v>612775</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>296145</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.4833</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>296145</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>43298.64</v>
@@ -12069,10 +12097,10 @@
         <v>602785</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>301026</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.4994</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>301026</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>11425.17</v>
@@ -12091,10 +12119,10 @@
         <v>600789</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>302126</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.5029</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>302126</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>59824.48</v>
@@ -12113,10 +12141,10 @@
         <v>588501</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>269740</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.4584</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>269740</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>46487.63</v>
@@ -12135,10 +12163,10 @@
         <v>581897</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>259451</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.4459</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>259451</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>56110.28</v>
@@ -12157,10 +12185,10 @@
         <v>577191</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>239318</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.4146</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>239318</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>62468.83</v>
@@ -12179,10 +12207,10 @@
         <v>590813</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>235809</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.3991</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>235809</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>61004.47</v>
@@ -12201,10 +12229,10 @@
         <v>720055</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>213871</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.297</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>213871</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>57506.72</v>
@@ -12223,10 +12251,10 @@
         <v>702841</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>278299</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.396</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>278299</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>11020.7</v>
@@ -12245,10 +12273,10 @@
         <v>704122</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>273793</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.3888</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>273793</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>38042.06</v>
@@ -12267,10 +12295,10 @@
         <v>689276</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>256186</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.3717</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>256186</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17003</v>
@@ -12289,10 +12317,10 @@
         <v>684333</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>253211</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.37</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>253211</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>54886</v>
@@ -12311,10 +12339,10 @@
         <v>680484</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>248524</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.3652</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>248524</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>32516</v>
@@ -12333,10 +12361,10 @@
         <v>660711</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>235389</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.3563</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>235389</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>47609</v>
@@ -12355,10 +12383,10 @@
         <v>635975</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>218487</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.3435</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>218487</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>74119</v>
@@ -12377,10 +12405,10 @@
         <v>641337</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>202030</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.315</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>202030</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>73363</v>
@@ -12399,10 +12427,10 @@
         <v>628928</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>201651</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.3206</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>201651</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>91281</v>
@@ -12421,10 +12449,10 @@
         <v>647135</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>212270</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.328</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>212270</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>65443</v>
@@ -12443,10 +12471,10 @@
         <v>625384</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>208620</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.3336</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>208620</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>54448</v>
@@ -12465,10 +12493,10 @@
         <v>638825</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>196005</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.3068</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>196005</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>40489</v>
@@ -12487,10 +12515,10 @@
         <v>590945</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>170004</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.2877</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>170004</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>59553</v>
@@ -12509,10 +12537,10 @@
         <v>582315</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>174796</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.3002</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>174796</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>56368</v>
@@ -12531,10 +12559,10 @@
         <v>665809</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>185662</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.2789</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>185662</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>33931</v>
@@ -12553,10 +12581,10 @@
         <v>705965</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>196788</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.2788</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>196788</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>70667.17999999999</v>
@@ -12575,10 +12603,10 @@
         <v>681120</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>205003</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.301</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>205003</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>75331</v>
@@ -12597,10 +12625,10 @@
         <v>709798</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>280801</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.3956</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>280801</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>11948</v>
@@ -12619,10 +12647,10 @@
         <v>715671</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>277966</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.3884</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>277966</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>14858</v>
@@ -12641,10 +12669,10 @@
         <v>661923</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>256777</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.3879</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>256777</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>63</v>
@@ -12663,10 +12691,10 @@
         <v>738536</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>296705</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.4017</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>296705</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>5256</v>
@@ -12685,10 +12713,10 @@
         <v>698634</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>330577</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.4732</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>330577</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1038</v>
@@ -12707,10 +12735,10 @@
         <v>734124</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>340885</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.4643</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>340885</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2198</v>
@@ -12729,10 +12757,10 @@
         <v>731425</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>328518</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.4491</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>328518</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1821</v>
@@ -12751,10 +12779,10 @@
         <v>667897</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>320967</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.4806</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>320967</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12773,10 +12801,10 @@
         <v>664853</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>256246</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.3854</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>256246</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12795,10 +12823,10 @@
         <v>659522</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>392184</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.5946</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>392184</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12817,10 +12845,10 @@
         <v>667179</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>374491</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.5612999999999999</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>374491</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12839,10 +12867,10 @@
         <v>648476</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>328740</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.5069</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>328740</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12861,10 +12889,10 @@
         <v>656558</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>459477</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.6998</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>459477</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -12883,10 +12911,10 @@
         <v>649070</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>430789</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.6637000000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>430789</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12905,10 +12933,10 @@
         <v>586242</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>329903</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.5627000000000001</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>329903</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12927,10 +12955,10 @@
         <v>590744</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>380256</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.6437</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>380256</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12949,10 +12977,10 @@
         <v>533273</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>351149</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.6585</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>351149</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12971,10 +12999,10 @@
         <v>504935</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>335625</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.6647000000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>335625</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12993,10 +13021,10 @@
         <v>482521</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>319141</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.6614</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>319141</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -13015,10 +13043,10 @@
         <v>453569</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>336326</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.7415</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>336326</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -13037,10 +13065,10 @@
         <v>443866</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>284490</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.6409</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>284490</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -13059,10 +13087,10 @@
         <v>412743</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>249755</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.6051</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>249755</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -13081,10 +13109,10 @@
         <v>407329</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>231796</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.5691000000000001</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>231796</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -13103,10 +13131,10 @@
         <v>450949</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>281887</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.6251</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>281887</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13125,10 +13153,10 @@
         <v>508570</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>242400</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.4766</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>242400</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13147,10 +13175,10 @@
         <v>416175</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>195916</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.4708</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>195916</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13169,10 +13197,10 @@
         <v>430184</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>221469</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.5147999999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>221469</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13191,10 +13219,10 @@
         <v>447693</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>218701</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.4885</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>218701</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13213,10 +13241,10 @@
         <v>443916</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>197061</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.4439</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>197061</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13235,10 +13263,10 @@
         <v>437637</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>211162</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.4825</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>211162</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13257,10 +13285,10 @@
         <v>432691</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>149338</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.3451</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>149338</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13279,10 +13307,10 @@
         <v>473078</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>194692</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.4115</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>194692</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13300,10 +13328,10 @@
         <v>455866</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>172900</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.3793</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>172900</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13321,10 +13349,10 @@
         <v>482317</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>160823</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.3334</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>160823</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13342,10 +13370,10 @@
         <v>487136</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>153685</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.3155</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>153685</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13363,10 +13391,10 @@
         <v>469644</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>143495</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.3055</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>143495</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13384,10 +13412,10 @@
         <v>464762</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>140363</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.302</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>140363</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13405,10 +13433,10 @@
         <v>474270</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>155901</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.3287</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>155901</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
